--- a/data/Roster_Archive_cheat.xlsx
+++ b/data/Roster_Archive_cheat.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kai/Desktop/Admin/Independent Project/Roster Master/roster_master/roster_master/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD232DE4-8004-144C-9FE2-841C15FAF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="8820" yWindow="1100" windowWidth="15960" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Consultant" sheetId="1" r:id="rId4"/>
-    <sheet name="Reg" sheetId="2" r:id="rId5"/>
+    <sheet name="Consultant" sheetId="1" r:id="rId1"/>
+    <sheet name="Reg" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>Roster Period</t>
   </si>
@@ -53,91 +72,81 @@
     <t>Total_CC</t>
   </si>
   <si>
-    <t>Andrew Chin</t>
+    <t>Employee A</t>
   </si>
   <si>
-    <t>Chong Chew Wei</t>
+    <t>Employee AC</t>
   </si>
   <si>
-    <t>Chung Sze Ryn</t>
+    <t>Employee SZ</t>
   </si>
   <si>
-    <t>Darryl Chew</t>
+    <t>Employee D</t>
   </si>
   <si>
-    <t>Duncan McGrouther</t>
+    <t>Employee J</t>
   </si>
   <si>
-    <t>Lai Jen Ming</t>
+    <t>Employee JT</t>
   </si>
   <si>
-    <t>Rebecca Lim</t>
+    <t>Employee DL</t>
   </si>
   <si>
-    <t>Robert Yap</t>
+    <t>Employee L</t>
   </si>
   <si>
-    <t>Abby Choke</t>
+    <t>Employee T</t>
   </si>
   <si>
-    <t>Andrew Chou</t>
+    <t>Employee We</t>
   </si>
   <si>
-    <t>Denise Fok</t>
+    <t>Employee Wa</t>
   </si>
   <si>
-    <t>Jeremy Goh</t>
+    <t>Consultant A</t>
   </si>
   <si>
-    <t>Joyce Tie</t>
+    <t>Consultant CW</t>
   </si>
   <si>
-    <t>Leong Dalun</t>
+    <t>Consultant SZ</t>
   </si>
   <si>
-    <t>Li Fang</t>
+    <t>Consultant DA</t>
   </si>
   <si>
-    <t>Tay Poi Hoon</t>
+    <t>Consultant DU</t>
   </si>
   <si>
-    <t>Wendy Teo</t>
+    <t>Consultant L</t>
   </si>
   <si>
-    <t>Wang Qiao</t>
+    <t>Consultant Re</t>
+  </si>
+  <si>
+    <t>Consultant Ro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -514,181 +523,178 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,36 +704,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffe121"/>
-      <rgbColor rgb="fff4cccc"/>
-      <rgbColor rgb="ff1a2423"/>
-      <rgbColor rgb="ffea9999"/>
-      <rgbColor rgb="ffcd840e"/>
-      <rgbColor rgb="ffe06666"/>
-      <rgbColor rgb="ffe69138"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFEFFFE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFE121"/>
+      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FF1A2423"/>
+      <rgbColor rgb="FFEA9999"/>
+      <rgbColor rgb="FFCD840E"/>
+      <rgbColor rgb="FFE06666"/>
+      <rgbColor rgb="FFE69138"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -929,7 +984,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -948,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,9 +1254,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1218,7 +1279,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1237,7 +1298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +1376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1471,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,9 +1545,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1500,7 +1567,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1519,7 +1586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1616,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,7 +1668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1627,7 +1694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1653,7 +1720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1705,7 +1772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,7 +1798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1757,7 +1824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1770,1276 +1837,1286 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3516" style="1" customWidth="1"/>
-    <col min="5" max="25" width="13.6719" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="25" width="13.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" t="s" s="3">
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" t="s" s="3">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" t="s" s="3">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" t="s" s="3">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" t="s" s="3">
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
     </row>
-    <row r="2" ht="20.65" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:25" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s" s="7">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="7">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s" s="7">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s" s="8">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R2" t="s" s="8">
+      <c r="R2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S2" t="s" s="8">
+      <c r="S2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s" s="7">
+      <c r="T2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s" s="7">
+      <c r="U2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s" s="7">
+      <c r="V2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s" s="8">
+      <c r="W2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X2" t="s" s="8">
+      <c r="X2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" t="s" s="8">
+      <c r="Y2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11">
+    <row r="3" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
         <f>B3*2+C3*3</f>
         <v>12</v>
       </c>
-      <c r="E3" s="12">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
         <f>E3*2+F3*3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
         <f>H3*2+I3*3</f>
         <v>13</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>4</v>
       </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
         <f>K3*2+L3*3</f>
         <v>11</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>4</v>
       </c>
-      <c r="O3" s="12">
-        <v>1</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="10">
         <f>N3*2+O3*3</f>
         <v>11</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>4</v>
       </c>
-      <c r="R3" s="13">
-        <v>1</v>
-      </c>
-      <c r="S3" s="13">
+      <c r="R3" s="11">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11">
         <v>11</v>
       </c>
-      <c r="T3" s="14">
-        <v>2</v>
-      </c>
-      <c r="U3" s="14">
-        <v>2</v>
-      </c>
-      <c r="V3" s="14">
+      <c r="T3" s="12">
+        <v>2</v>
+      </c>
+      <c r="U3" s="12">
+        <v>2</v>
+      </c>
+      <c r="V3" s="12">
         <v>10</v>
       </c>
-      <c r="W3" s="15">
-        <v>3</v>
-      </c>
-      <c r="X3" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="17">
+      <c r="W3" s="13">
+        <v>3</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="17">
         <v>4</v>
       </c>
-      <c r="C4" s="20">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
         <f>B4*2+C4*3</f>
         <v>11</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>4</v>
       </c>
-      <c r="F4" s="21">
-        <v>2</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="F4" s="19">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19">
         <f>E4*2+F4*3</f>
         <v>14</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>4</v>
       </c>
-      <c r="I4" s="21">
-        <v>2</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="I4" s="19">
+        <v>2</v>
+      </c>
+      <c r="J4" s="19">
         <f>H4*2+I4*3</f>
         <v>14</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="19">
         <v>4</v>
       </c>
-      <c r="L4" s="21">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
         <f>K4*2+L4*3</f>
         <v>11</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="19">
         <v>4</v>
       </c>
-      <c r="O4" s="21">
-        <v>1</v>
-      </c>
-      <c r="P4" s="21">
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
         <f>N4*2+O4*3</f>
         <v>11</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="18">
         <v>4</v>
       </c>
-      <c r="R4" s="20">
-        <v>1</v>
-      </c>
-      <c r="S4" s="20">
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="18">
         <v>11</v>
       </c>
-      <c r="T4" s="22">
-        <v>2</v>
-      </c>
-      <c r="U4" s="22">
-        <v>1</v>
-      </c>
-      <c r="V4" s="22">
+      <c r="T4" s="20">
+        <v>2</v>
+      </c>
+      <c r="U4" s="20">
+        <v>1</v>
+      </c>
+      <c r="V4" s="20">
         <v>7</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="21">
         <v>4</v>
       </c>
-      <c r="X4" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="25">
+      <c r="X4" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
+    <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="27">
-        <v>2</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="C5" s="25">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25">
         <v>14</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>4</v>
       </c>
-      <c r="F5" s="27">
-        <v>2</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="F5" s="25">
+        <v>2</v>
+      </c>
+      <c r="G5" s="25">
         <v>14</v>
       </c>
-      <c r="H5" s="27">
-        <v>2</v>
-      </c>
-      <c r="I5" s="27">
-        <v>3</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="H5" s="25">
+        <v>2</v>
+      </c>
+      <c r="I5" s="25">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25">
         <v>13</v>
       </c>
-      <c r="K5" s="27">
-        <v>3</v>
-      </c>
-      <c r="L5" s="27">
+      <c r="K5" s="25">
+        <v>3</v>
+      </c>
+      <c r="L5" s="25">
         <v>0</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="25">
         <v>9</v>
       </c>
-      <c r="N5" s="27">
-        <v>3</v>
-      </c>
-      <c r="O5" s="27">
-        <v>1</v>
-      </c>
-      <c r="P5" s="27">
+      <c r="N5" s="25">
+        <v>3</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="25">
         <v>9</v>
       </c>
-      <c r="Q5" s="27">
-        <v>2</v>
-      </c>
-      <c r="R5" s="27">
-        <v>1</v>
-      </c>
-      <c r="S5" s="27">
+      <c r="Q5" s="25">
+        <v>2</v>
+      </c>
+      <c r="R5" s="25">
+        <v>1</v>
+      </c>
+      <c r="S5" s="25">
         <v>7</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="20">
         <v>5</v>
       </c>
-      <c r="U5" s="22">
-        <v>1</v>
-      </c>
-      <c r="V5" s="22">
+      <c r="U5" s="20">
+        <v>1</v>
+      </c>
+      <c r="V5" s="20">
         <v>13</v>
       </c>
-      <c r="W5" s="23">
-        <v>2</v>
-      </c>
-      <c r="X5" s="24">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="25">
+      <c r="W5" s="21">
+        <v>2</v>
+      </c>
+      <c r="X5" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="B6" s="19">
-        <v>2</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
         <f>B6*2+C6*3</f>
         <v>7</v>
       </c>
-      <c r="E6" s="21">
-        <v>2</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
         <f>E6*2+F6*3</f>
         <v>7</v>
       </c>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21">
-        <v>2</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19">
         <f>H6*2+I6*3</f>
         <v>8</v>
       </c>
-      <c r="K6" s="21">
-        <v>1</v>
-      </c>
-      <c r="L6" s="21">
-        <v>2</v>
-      </c>
-      <c r="M6" s="21">
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19">
         <f>K6*2+L6*3</f>
         <v>8</v>
       </c>
-      <c r="N6" s="21">
-        <v>1</v>
-      </c>
-      <c r="O6" s="21">
-        <v>1</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19">
         <f>N6*2+O6*3</f>
         <v>5</v>
       </c>
-      <c r="Q6" s="20">
-        <v>2</v>
-      </c>
-      <c r="R6" s="20">
-        <v>1</v>
-      </c>
-      <c r="S6" s="20">
+      <c r="Q6" s="18">
+        <v>2</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
         <v>7</v>
       </c>
-      <c r="T6" s="22">
-        <v>2</v>
-      </c>
-      <c r="U6" s="22">
-        <v>1</v>
-      </c>
-      <c r="V6" s="22">
+      <c r="T6" s="20">
+        <v>2</v>
+      </c>
+      <c r="U6" s="20">
+        <v>1</v>
+      </c>
+      <c r="V6" s="20">
         <v>7</v>
       </c>
-      <c r="W6" s="23">
-        <v>2</v>
-      </c>
-      <c r="X6" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="25">
+      <c r="W6" s="21">
+        <v>2</v>
+      </c>
+      <c r="X6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
+    <row r="7" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
         <f>B7*2+C7*3</f>
         <v>7</v>
       </c>
-      <c r="E7" s="21">
-        <v>2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
         <f>E7*2+F7*3</f>
         <v>7</v>
       </c>
-      <c r="H7" s="28">
-        <v>1</v>
-      </c>
-      <c r="I7" s="28">
-        <v>2</v>
-      </c>
-      <c r="J7" s="28">
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26">
+        <v>2</v>
+      </c>
+      <c r="J7" s="26">
         <f>H7*2+I7*3</f>
         <v>8</v>
       </c>
-      <c r="K7" s="21">
-        <v>1</v>
-      </c>
-      <c r="L7" s="21">
-        <v>2</v>
-      </c>
-      <c r="M7" s="21">
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2</v>
+      </c>
+      <c r="M7" s="19">
         <f>K7*2+L7*3</f>
         <v>8</v>
       </c>
-      <c r="N7" s="21">
-        <v>2</v>
-      </c>
-      <c r="O7" s="21">
-        <v>1</v>
-      </c>
-      <c r="P7" s="21">
+      <c r="N7" s="19">
+        <v>2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
         <f>N7*2+O7*3</f>
         <v>7</v>
       </c>
-      <c r="Q7" s="20">
-        <v>2</v>
-      </c>
-      <c r="R7" s="20">
-        <v>1</v>
-      </c>
-      <c r="S7" s="20">
+      <c r="Q7" s="18">
+        <v>2</v>
+      </c>
+      <c r="R7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18">
         <v>7</v>
       </c>
-      <c r="T7" s="22">
-        <v>2</v>
-      </c>
-      <c r="U7" s="22">
-        <v>1</v>
-      </c>
-      <c r="V7" s="22">
+      <c r="T7" s="20">
+        <v>2</v>
+      </c>
+      <c r="U7" s="20">
+        <v>1</v>
+      </c>
+      <c r="V7" s="20">
         <v>7</v>
       </c>
-      <c r="W7" s="23">
-        <v>2</v>
-      </c>
-      <c r="X7" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="25">
+      <c r="W7" s="21">
+        <v>2</v>
+      </c>
+      <c r="X7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="20">
-        <v>2</v>
-      </c>
-      <c r="D8" s="20">
+    <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
         <f>B8*2+C8*3</f>
         <v>12</v>
       </c>
-      <c r="E8" s="21">
-        <v>3</v>
-      </c>
-      <c r="F8" s="21">
-        <v>2</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
         <f>E8*2+F8*3</f>
         <v>12</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>6</v>
       </c>
-      <c r="I8" s="21">
-        <v>2</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
         <f>H8*2+I8*3</f>
         <v>18</v>
       </c>
-      <c r="K8" s="21">
-        <v>3</v>
-      </c>
-      <c r="L8" s="21">
-        <v>1</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="K8" s="19">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19">
         <f>K8*2+L8*3</f>
         <v>9</v>
       </c>
-      <c r="N8" s="21">
-        <v>2</v>
-      </c>
-      <c r="O8" s="21">
-        <v>2</v>
-      </c>
-      <c r="P8" s="21">
+      <c r="N8" s="19">
+        <v>2</v>
+      </c>
+      <c r="O8" s="19">
+        <v>2</v>
+      </c>
+      <c r="P8" s="19">
         <f>N8*2+O8*3</f>
         <v>10</v>
       </c>
-      <c r="Q8" s="20">
-        <v>3</v>
-      </c>
-      <c r="R8" s="20">
-        <v>2</v>
-      </c>
-      <c r="S8" s="20">
+      <c r="Q8" s="18">
+        <v>3</v>
+      </c>
+      <c r="R8" s="18">
+        <v>2</v>
+      </c>
+      <c r="S8" s="18">
         <v>12</v>
       </c>
-      <c r="T8" s="22">
-        <v>2</v>
-      </c>
-      <c r="U8" s="22">
-        <v>2</v>
-      </c>
-      <c r="V8" s="22">
+      <c r="T8" s="20">
+        <v>2</v>
+      </c>
+      <c r="U8" s="20">
+        <v>2</v>
+      </c>
+      <c r="V8" s="20">
         <v>10</v>
       </c>
-      <c r="W8" s="23">
-        <v>2</v>
-      </c>
-      <c r="X8" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="25">
+      <c r="W8" s="21">
+        <v>2</v>
+      </c>
+      <c r="X8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="20">
-        <v>2</v>
-      </c>
-      <c r="D9" s="20">
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
         <f>B9*2+C9*3</f>
         <v>12</v>
       </c>
-      <c r="E9" s="21">
-        <v>3</v>
-      </c>
-      <c r="F9" s="21">
-        <v>2</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19">
         <f>E9*2+F9*3</f>
         <v>12</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>6</v>
       </c>
-      <c r="I9" s="21">
-        <v>1</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
         <f>H9*2+I9*3</f>
         <v>15</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>5</v>
       </c>
-      <c r="L9" s="21">
-        <v>1</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="L9" s="19">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19">
         <f>K9*2+L9*3</f>
         <v>13</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="19">
         <v>4</v>
       </c>
-      <c r="O9" s="21">
-        <v>1</v>
-      </c>
-      <c r="P9" s="21">
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
         <f>N9*2+O9*3</f>
         <v>11</v>
       </c>
-      <c r="Q9" s="20">
-        <v>3</v>
-      </c>
-      <c r="R9" s="20">
-        <v>1</v>
-      </c>
-      <c r="S9" s="20">
+      <c r="Q9" s="18">
+        <v>3</v>
+      </c>
+      <c r="R9" s="18">
+        <v>1</v>
+      </c>
+      <c r="S9" s="18">
         <v>9</v>
       </c>
-      <c r="T9" s="22">
-        <v>3</v>
-      </c>
-      <c r="U9" s="22">
-        <v>1</v>
-      </c>
-      <c r="V9" s="22">
+      <c r="T9" s="20">
+        <v>3</v>
+      </c>
+      <c r="U9" s="20">
+        <v>1</v>
+      </c>
+      <c r="V9" s="20">
         <v>9</v>
       </c>
-      <c r="W9" s="23">
-        <v>3</v>
-      </c>
-      <c r="X9" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="25">
+      <c r="W9" s="21">
+        <v>3</v>
+      </c>
+      <c r="X9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
+    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="17">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
         <f>B10*2+C10*3</f>
         <v>9</v>
       </c>
-      <c r="E10" s="21">
-        <v>3</v>
-      </c>
-      <c r="F10" s="21">
-        <v>2</v>
-      </c>
-      <c r="G10" s="21">
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
         <f>E10*2+F10*3</f>
         <v>12</v>
       </c>
-      <c r="H10" s="28">
-        <v>1</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="H10" s="26">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10" s="26">
         <f>H10*2+I10*3</f>
         <v>8</v>
       </c>
-      <c r="K10" s="21">
-        <v>3</v>
-      </c>
-      <c r="L10" s="21">
-        <v>2</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="K10" s="19">
+        <v>3</v>
+      </c>
+      <c r="L10" s="19">
+        <v>2</v>
+      </c>
+      <c r="M10" s="19">
         <f>K10*2+L10*3</f>
         <v>12</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="19">
         <v>5</v>
       </c>
-      <c r="O10" s="21">
-        <v>2</v>
-      </c>
-      <c r="P10" s="21">
+      <c r="O10" s="19">
+        <v>2</v>
+      </c>
+      <c r="P10" s="19">
         <f>N10*2+O10*3</f>
         <v>16</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="18">
         <v>4</v>
       </c>
-      <c r="R10" s="20">
-        <v>1</v>
-      </c>
-      <c r="S10" s="20">
+      <c r="R10" s="18">
+        <v>1</v>
+      </c>
+      <c r="S10" s="18">
         <v>11</v>
       </c>
-      <c r="T10" s="22">
-        <v>2</v>
-      </c>
-      <c r="U10" s="22">
-        <v>2</v>
-      </c>
-      <c r="V10" s="22">
+      <c r="T10" s="20">
+        <v>2</v>
+      </c>
+      <c r="U10" s="20">
+        <v>2</v>
+      </c>
+      <c r="V10" s="20">
         <v>10</v>
       </c>
-      <c r="W10" s="29">
-        <v>3</v>
-      </c>
-      <c r="X10" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="31">
+      <c r="W10" s="27">
+        <v>3</v>
+      </c>
+      <c r="X10" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="29">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+    <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+    <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+    <row r="17" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+    <row r="18" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
+    <row r="21" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+    <row r="22" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
+    <row r="23" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
+    <row r="24" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
+    <row r="25" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
+    <row r="26" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
+    <row r="27" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3047,882 +3124,884 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="16.3516" style="34" customWidth="1"/>
-    <col min="26" max="16384" width="16.3516" style="34" customWidth="1"/>
+    <col min="1" max="26" width="16.33203125" style="32" customWidth="1"/>
+    <col min="27" max="16384" width="16.33203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" t="s" s="3">
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" t="s" s="3">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" t="s" s="3">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" t="s" s="3">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" t="s" s="3">
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
     </row>
-    <row r="2" ht="20.65" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:25" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="7">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s" s="7">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s" s="7">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="7">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s" s="7">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s" s="7">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s" s="7">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s" s="8">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R2" t="s" s="8">
+      <c r="R2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S2" t="s" s="8">
+      <c r="S2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s" s="7">
+      <c r="T2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s" s="7">
+      <c r="U2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s" s="7">
+      <c r="V2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s" s="7">
+      <c r="W2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X2" t="s" s="7">
+      <c r="X2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" t="s" s="7">
+      <c r="Y2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="35">
-        <v>21</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="14">
-        <v>3</v>
-      </c>
-      <c r="L3" s="14">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
+    <row r="3" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="12">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
         <f>K3*2+L3*3</f>
         <v>9</v>
       </c>
-      <c r="N3" s="14">
-        <v>3</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="N3" s="12">
+        <v>3</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1</v>
+      </c>
+      <c r="P3" s="10">
         <f>N3*2+O3*3</f>
         <v>9</v>
       </c>
-      <c r="Q3" s="13">
-        <v>3</v>
-      </c>
-      <c r="R3" s="13">
-        <v>1</v>
-      </c>
-      <c r="S3" s="13">
+      <c r="Q3" s="11">
+        <v>3</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11">
         <v>9</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="12">
         <v>4</v>
       </c>
-      <c r="U3" s="14">
-        <v>1</v>
-      </c>
-      <c r="V3" s="14">
+      <c r="U3" s="12">
+        <v>1</v>
+      </c>
+      <c r="V3" s="12">
         <v>11</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="37">
         <v>4</v>
       </c>
-      <c r="X3" s="40">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="41">
+      <c r="X3" s="38">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="39">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="18">
-        <v>22</v>
-      </c>
-      <c r="B4" s="19">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20">
-        <v>2</v>
-      </c>
-      <c r="D4" s="20">
+    <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18">
         <f>B4*2+C4*3</f>
         <v>12</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>4</v>
       </c>
-      <c r="F4" s="20">
-        <v>2</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
         <v>14</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>6</v>
       </c>
-      <c r="I4" s="20">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
         <f>H4*2+I4*3</f>
         <v>15</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>0</v>
       </c>
-      <c r="L4" s="20">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="L4" s="18">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
         <f>K4*2+L4*3</f>
         <v>3</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="20">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="18">
         <v>0</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="18">
         <v>0</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="18">
         <v>0</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="45">
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43">
         <v>0</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="43">
         <v>0</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="33.9" customHeight="1">
-      <c r="A5" t="s" s="46">
+    <row r="5" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="20">
-        <v>2</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
         <f>B5*2+C5*3</f>
         <v>14</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>4</v>
       </c>
-      <c r="F5" s="20">
-        <v>2</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18">
         <v>14</v>
       </c>
-      <c r="H5" s="20">
-        <v>2</v>
-      </c>
-      <c r="I5" s="20">
-        <v>3</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19">
         <f>H5*2+I5*3</f>
         <v>13</v>
       </c>
-      <c r="K5" s="20">
-        <v>3</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="K5" s="18">
+        <v>3</v>
+      </c>
+      <c r="L5" s="18">
         <v>0</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="19">
         <f>K5*2+L5*3</f>
         <v>6</v>
       </c>
-      <c r="N5" s="20">
-        <v>3</v>
-      </c>
-      <c r="O5" s="20">
-        <v>1</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="N5" s="18">
+        <v>3</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
         <f>N5*2+O5*3</f>
         <v>9</v>
       </c>
-      <c r="Q5" s="20">
-        <v>2</v>
-      </c>
-      <c r="R5" s="20">
-        <v>1</v>
-      </c>
-      <c r="S5" s="20">
+      <c r="Q5" s="18">
+        <v>2</v>
+      </c>
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5" s="18">
         <v>7</v>
       </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45">
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="43">
         <v>0</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="43">
         <v>0</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="46">
-        <v>23</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="22">
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="20">
         <v>4</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <f>K6*2+L6*3</f>
         <v>8</v>
       </c>
-      <c r="N6" s="22">
-        <v>2</v>
-      </c>
-      <c r="O6" s="22">
-        <v>2</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="N6" s="20">
+        <v>2</v>
+      </c>
+      <c r="O6" s="20">
+        <v>2</v>
+      </c>
+      <c r="P6" s="19">
         <f>N6*2+O6*3</f>
         <v>10</v>
       </c>
-      <c r="Q6" s="20">
-        <v>2</v>
-      </c>
-      <c r="R6" s="20">
-        <v>1</v>
-      </c>
-      <c r="S6" s="20">
+      <c r="Q6" s="18">
+        <v>2</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
         <v>7</v>
       </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51">
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49">
         <v>0</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="49">
         <v>0</v>
       </c>
-      <c r="Y6" s="51">
+      <c r="Y6" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="52">
-        <v>24</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="22">
+    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="20">
         <v>5</v>
       </c>
-      <c r="U7" s="22">
-        <v>2</v>
-      </c>
-      <c r="V7" s="22">
+      <c r="U7" s="20">
+        <v>2</v>
+      </c>
+      <c r="V7" s="20">
         <v>16</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="21">
         <v>4</v>
       </c>
-      <c r="X7" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="25">
+      <c r="X7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="18">
-        <v>25</v>
-      </c>
-      <c r="B8" s="19">
+    <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="20">
-        <v>2</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
         <f>B8*2+C8*3</f>
         <v>14</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="20">
-        <v>2</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18">
         <v>14</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>6</v>
       </c>
-      <c r="I8" s="20">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
         <f>H8*2+I8*3</f>
         <v>15</v>
       </c>
-      <c r="K8" s="20">
-        <v>1</v>
-      </c>
-      <c r="L8" s="20">
-        <v>2</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19">
         <f>K8*2+L8*3</f>
         <v>8</v>
       </c>
-      <c r="N8" s="20">
-        <v>3</v>
-      </c>
-      <c r="O8" s="20">
-        <v>1</v>
-      </c>
-      <c r="P8" s="21">
+      <c r="N8" s="18">
+        <v>3</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19">
         <f>N8*2+O8*3</f>
         <v>9</v>
       </c>
-      <c r="Q8" s="20">
-        <v>3</v>
-      </c>
-      <c r="R8" s="20">
-        <v>1</v>
-      </c>
-      <c r="S8" s="20">
+      <c r="Q8" s="18">
+        <v>3</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1</v>
+      </c>
+      <c r="S8" s="18">
         <v>9</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="20">
         <v>5</v>
       </c>
-      <c r="U8" s="22">
-        <v>2</v>
-      </c>
-      <c r="V8" s="22">
+      <c r="U8" s="20">
+        <v>2</v>
+      </c>
+      <c r="V8" s="20">
         <v>16</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="21">
         <v>5</v>
       </c>
-      <c r="X8" s="24">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="25">
+      <c r="X8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="53">
-        <v>26</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="22">
-        <v>1</v>
-      </c>
-      <c r="L9" s="22">
-        <v>2</v>
-      </c>
-      <c r="M9" s="21">
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="20">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19">
         <f>K9*2+L9*3</f>
         <v>8</v>
       </c>
-      <c r="N9" s="22">
-        <v>3</v>
-      </c>
-      <c r="O9" s="22">
-        <v>1</v>
-      </c>
-      <c r="P9" s="21">
+      <c r="N9" s="20">
+        <v>3</v>
+      </c>
+      <c r="O9" s="20">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
         <f>N9*2+O9*3</f>
         <v>9</v>
       </c>
-      <c r="Q9" s="20">
-        <v>3</v>
-      </c>
-      <c r="R9" s="20">
-        <v>1</v>
-      </c>
-      <c r="S9" s="20">
+      <c r="Q9" s="18">
+        <v>3</v>
+      </c>
+      <c r="R9" s="18">
+        <v>1</v>
+      </c>
+      <c r="S9" s="18">
         <v>9</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="20">
         <v>0</v>
       </c>
-      <c r="U9" s="22">
-        <v>1</v>
-      </c>
-      <c r="V9" s="54">
-        <v>3</v>
-      </c>
-      <c r="W9" s="51">
+      <c r="U9" s="20">
+        <v>1</v>
+      </c>
+      <c r="V9" s="52">
+        <v>3</v>
+      </c>
+      <c r="W9" s="49">
         <v>0</v>
       </c>
-      <c r="X9" s="51">
+      <c r="X9" s="49">
         <v>0</v>
       </c>
-      <c r="Y9" s="51">
+      <c r="Y9" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="B10" s="19">
+    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="20">
-        <v>2</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="18">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
         <f>B10*2+C10*3</f>
         <v>16</v>
       </c>
-      <c r="E10" s="20">
-        <v>3</v>
-      </c>
-      <c r="F10" s="20">
-        <v>3</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18">
         <v>15</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>4</v>
       </c>
-      <c r="I10" s="20">
-        <v>2</v>
-      </c>
-      <c r="J10" s="21">
+      <c r="I10" s="18">
+        <v>2</v>
+      </c>
+      <c r="J10" s="19">
         <f>H10*2+I10*3</f>
         <v>14</v>
       </c>
-      <c r="K10" s="20">
-        <v>3</v>
-      </c>
-      <c r="L10" s="20">
-        <v>1</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="K10" s="18">
+        <v>3</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
         <f>K10*2+L10*3</f>
         <v>9</v>
       </c>
-      <c r="N10" s="20">
-        <v>2</v>
-      </c>
-      <c r="O10" s="20">
-        <v>1</v>
-      </c>
-      <c r="P10" s="21">
+      <c r="N10" s="18">
+        <v>2</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19">
         <f>N10*2+O10*3</f>
         <v>7</v>
       </c>
-      <c r="Q10" s="20">
-        <v>3</v>
-      </c>
-      <c r="R10" s="20">
-        <v>1</v>
-      </c>
-      <c r="S10" s="20">
+      <c r="Q10" s="18">
+        <v>3</v>
+      </c>
+      <c r="R10" s="18">
+        <v>1</v>
+      </c>
+      <c r="S10" s="18">
         <v>9</v>
       </c>
-      <c r="T10" s="22">
-        <v>2</v>
-      </c>
-      <c r="U10" s="22">
-        <v>3</v>
-      </c>
-      <c r="V10" s="22">
+      <c r="T10" s="20">
+        <v>2</v>
+      </c>
+      <c r="U10" s="20">
+        <v>3</v>
+      </c>
+      <c r="V10" s="20">
         <v>13</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="21">
         <v>5</v>
       </c>
-      <c r="X10" s="24">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="25">
+      <c r="X10" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="23">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="B11" s="19">
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="20">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
         <f>B11*2+C11*3</f>
         <v>14</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>4</v>
       </c>
-      <c r="F11" s="20">
-        <v>3</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="F11" s="18">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18">
         <v>17</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>4</v>
       </c>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
         <f>H11*2+I11*3</f>
         <v>11</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="20">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="18">
         <v>0</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="18">
         <v>0</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="18">
         <v>0</v>
       </c>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51">
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49">
         <v>0</v>
       </c>
-      <c r="X11" s="51">
+      <c r="X11" s="49">
         <v>0</v>
       </c>
-      <c r="Y11" s="51">
+      <c r="Y11" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="55">
-        <v>29</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="22">
-        <v>3</v>
-      </c>
-      <c r="L12" s="22">
-        <v>1</v>
-      </c>
-      <c r="M12" s="21">
+    <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="20">
+        <v>3</v>
+      </c>
+      <c r="L12" s="20">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
         <f>K12*2+L12*3</f>
         <v>9</v>
       </c>
-      <c r="N12" s="22">
-        <v>3</v>
-      </c>
-      <c r="O12" s="22">
-        <v>1</v>
-      </c>
-      <c r="P12" s="21">
+      <c r="N12" s="20">
+        <v>3</v>
+      </c>
+      <c r="O12" s="20">
+        <v>1</v>
+      </c>
+      <c r="P12" s="19">
         <f>N12*2+O12*3</f>
         <v>9</v>
       </c>
-      <c r="Q12" s="20">
-        <v>3</v>
-      </c>
-      <c r="R12" s="20">
-        <v>1</v>
-      </c>
-      <c r="S12" s="20">
+      <c r="Q12" s="18">
+        <v>3</v>
+      </c>
+      <c r="R12" s="18">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18">
         <v>9</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <v>4</v>
       </c>
-      <c r="U12" s="22">
-        <v>2</v>
-      </c>
-      <c r="V12" s="22">
+      <c r="U12" s="20">
+        <v>2</v>
+      </c>
+      <c r="V12" s="20">
         <v>14</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="21">
         <v>4</v>
       </c>
-      <c r="X12" s="24">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="25">
+      <c r="X12" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="52">
-        <v>30</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="22">
-        <v>3</v>
-      </c>
-      <c r="L13" s="22">
-        <v>1</v>
-      </c>
-      <c r="M13" s="21">
+    <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="20">
+        <v>3</v>
+      </c>
+      <c r="L13" s="20">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
         <f>K13*2+L13*3</f>
         <v>9</v>
       </c>
-      <c r="N13" s="22">
-        <v>3</v>
-      </c>
-      <c r="O13" s="22">
-        <v>1</v>
-      </c>
-      <c r="P13" s="21">
+      <c r="N13" s="20">
+        <v>3</v>
+      </c>
+      <c r="O13" s="20">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19">
         <f>N13*2+O13*3</f>
         <v>9</v>
       </c>
-      <c r="Q13" s="20">
-        <v>3</v>
-      </c>
-      <c r="R13" s="20">
-        <v>1</v>
-      </c>
-      <c r="S13" s="20">
+      <c r="Q13" s="18">
+        <v>3</v>
+      </c>
+      <c r="R13" s="18">
+        <v>1</v>
+      </c>
+      <c r="S13" s="18">
         <v>9</v>
       </c>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="56">
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="54">
         <v>0</v>
       </c>
-      <c r="X13" s="56">
+      <c r="X13" s="54">
         <v>0</v>
       </c>
-      <c r="Y13" s="56">
+      <c r="Y13" s="54">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
